--- a/output/output_angelsandairwaves.xlsx
+++ b/output/output_angelsandairwaves.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRABA\PycharmProjects\Spark\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -106,8 +111,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +149,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -190,7 +203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,9 +235,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,6 +270,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -431,14 +446,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,10 +463,16 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -459,8 +482,14 @@
       <c r="C2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -468,10 +497,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -479,10 +514,16 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -490,10 +531,16 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -501,10 +548,16 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>157</v>
+      </c>
+      <c r="D6">
+        <v>164</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -512,10 +565,16 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>64</v>
+      </c>
+      <c r="D7">
+        <v>66</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -523,10 +582,16 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -534,10 +599,16 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -545,10 +616,16 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -556,10 +633,16 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -569,8 +652,14 @@
       <c r="C12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -578,10 +667,16 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -589,10 +684,16 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -602,8 +703,14 @@
       <c r="C15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -611,10 +718,16 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -622,10 +735,16 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -633,10 +752,16 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -644,10 +769,16 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -655,10 +786,16 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -666,10 +803,16 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -677,10 +820,16 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -688,10 +837,16 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -699,10 +854,16 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -710,10 +871,16 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -723,8 +890,14 @@
       <c r="C26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -732,10 +905,16 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -743,10 +922,16 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -754,6 +939,12 @@
         <v>1</v>
       </c>
       <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
         <v>3</v>
       </c>
     </row>
